--- a/dataland-frontend/public/Dataland_Request_Template.xlsx
+++ b/dataland-frontend/public/Dataland_Request_Template.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92432\Documents\Projekte\02-Dataland\Dataland\dataland-frontend\src\assets\excel-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92432\Documents\Projekte\02-Dataland\Dataland\dataland-frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7915AF4B-B527-47AD-AF9D-3CFEAD08C6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950EACBB-1D13-4177-AFD7-2B5A6778CD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>This is a dummy Excel file representing an actual Excel Template for Data Requests to Dataland</t>
+    <t>Select the Data Framework(s) you want to request data for</t>
+  </si>
+  <si>
+    <t>EU Taxonomy</t>
+  </si>
+  <si>
+    <t>SFDR</t>
+  </si>
+  <si>
+    <t>LkSG</t>
+  </si>
+  <si>
+    <t>DUNS Number</t>
+  </si>
+  <si>
+    <t>LEI</t>
+  </si>
+  <si>
+    <t>ISIN</t>
+  </si>
+  <si>
+    <t>CUSIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Notify me when the data is available</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="IBM Plex Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fill out the list of identifiers of the company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="IBM Plex Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="IBM Plex Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Fill out at least 1 identifier per company)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,16 +97,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="IBM Plex Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="IBM Plex Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="IBM Plex Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="IBM Plex Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="IBM Plex Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,18 +158,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDDDDDD"/>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -80,6 +227,805 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>368300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Group Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>470090</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>984440</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>333375</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Option Button 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Yes</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>482790</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>58604</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1000315</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>334829</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Option Button 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>No</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>482790</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>48352</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1000315</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>359502</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Option Button 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Yes</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>505015</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>59828</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>997140</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>336053</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Option Button 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>No</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>470090</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>44450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>974915</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>352425</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Option Button 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Yes</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>489140</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>44450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>984440</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>314325</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Option Button 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>No</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>11476</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>6350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Group Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>11476</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Group Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>82550</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>447675</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>361950</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,19 +1290,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="60.453125" style="3" customWidth="1"/>
+    <col min="2" max="5" width="20.6328125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="40.6328125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId4" name="Group Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>374650</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>368300</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1036" r:id="rId5" name="Option Button 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>469900</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>984250</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>336550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId6" name="Option Button 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>482600</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1003300</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>336550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId7" name="Option Button 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>482600</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>50800</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>1003300</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>361950</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId8" name="Option Button 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>508000</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>996950</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>336550</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId9" name="Option Button 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>469900</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>44450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>977900</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>355600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1042" r:id="rId10" name="Option Button 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>488950</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>44450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>984250</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>317500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1043" r:id="rId11" name="Group Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>6350</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1044" r:id="rId12" name="Group Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1045" r:id="rId13" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>82550</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>444500</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>361950</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>